--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -5154,9 +5154,6 @@
     <t>Average_Relative_humidity</t>
   </si>
   <si>
-    <t>Avgerage_Temperature</t>
-  </si>
-  <si>
     <t>Lowest_Temperature</t>
   </si>
   <si>
@@ -5196,7 +5193,10 @@
     <t>Body</t>
   </si>
   <si>
-    <t>Avgerage_Wind_Speed</t>
+    <t>Average_Wind_Speed</t>
+  </si>
+  <si>
+    <t>Average_Temperature</t>
   </si>
 </sst>
 </file>
@@ -6233,8 +6233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T632"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6305,55 +6305,55 @@
         <v>1708</v>
       </c>
       <c r="D3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E3" t="s">
         <v>1711</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>1712</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1713</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>1709</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>1710</v>
       </c>
       <c r="J3" s="8" t="s">
+        <v>1714</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1716</v>
+      </c>
+      <c r="L3" t="s">
         <v>1715</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" s="8" t="s">
+        <v>1713</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>1717</v>
       </c>
-      <c r="L3" t="s">
-        <v>1716</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>1714</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>1718</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>1719</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>1720</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="9" t="s">
+        <v>1723</v>
+      </c>
+      <c r="S3" t="s">
         <v>1721</v>
       </c>
-      <c r="R3" s="9" t="s">
-        <v>1724</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>1722</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1723</v>
       </c>
     </row>
     <row r="4" spans="1:20">
